--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16501215107194583, 0.12670190875898357, 0.1481271831674399, 0.1397837044333321, 0.11502025560013773, 0.1687622754548046, 0.29857973693529255, 0.17404002248504644, 0.11890962695363821, 0.12587788116215035, 0.15781201281549517, 0.12275558310418906, 0.1982132442766738, 0.25460327052376897, 0.180090429946542, 0.12006792042402836, 0.158980294721451, 0.12900008389207798, 0.140406152116912]</t>
+    <t>[1.0, 0.14643906734949533, 0.10725670006453873, 0.12915941689363025, 0.12061853767802033, 0.09529222979032297, 0.15027076697280542, 0.28293380902964554, 0.15562662480561312, 0.09925782226734164, 0.10638978403432553, 0.139036908533035, 0.10318990563866105, 0.18032636659089513, 0.23794772145691936, 0.1617859874633006, 0.10038723675731485, 0.14019508733748, 0.10954014483743388, 0.1211875521591939]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1609749890990759, 0.12362508773468203, 0.14435614025313878, 0.1359953199030797, 0.11076993361614232, 0.16544824748968942, 0.2934949079894387, 0.1697089629752603, 0.11527310729954435, 0.1218558765944953, 0.15392252156075, 0.11958854783142649, 0.19396027108241995, 0.24944601702581642, 0.1753806633910383, 0.11575636002905308, 0.1551722855084769, 0.12457829263255205, 0.13617451146954446]</t>
+    <t>[1.0, 0.14076098385164804, 0.10299558811373223, 0.12411735346320647, 0.11549494245531228, 0.08954633752648712, 0.14580940205569717, 0.2762374586620903, 0.1501245493639528, 0.09487644839189921, 0.10145257250386426, 0.13416056039030638, 0.09915876145921537, 0.17473710792816705, 0.23107156258968406, 0.15577909063882972, 0.09508799457092529, 0.13560128597906634, 0.10414329770282374, 0.11609371422041224]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>287.75</v>
+        <v>440.75</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-2.7917204620199</v>
+        <v>-3.561601507882178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03934611561863452</v>
+        <v>0.0393302453698143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>697010.7998500394</v>
+        <v>896467.2427131189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8873563218390804</v>
+        <v>0.8921822897369396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-21.60747947294836</v>
+        <v>-28.46716274331469</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.04646347555425345</v>
+        <v>0.04219520434267009</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1104159.247104088</v>
+        <v>1416030.891304129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>27.50781712596988</v>
+        <v>38.19857787828995</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0651098759187731</v>
+        <v>-0.0829075914580136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>334860.6123380417</v>
+        <v>431512.5795807452</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.14643906734949533, 0.10725670006453873, 0.12915941689363025, 0.12061853767802033, 0.09529222979032297, 0.15027076697280542, 0.28293380902964554, 0.15562662480561312, 0.09925782226734164, 0.10638978403432553, 0.139036908533035, 0.10318990563866105, 0.18032636659089513, 0.23794772145691936, 0.1617859874633006, 0.10038723675731485, 0.14019508733748, 0.10954014483743388, 0.1211875521591939]</t>
+    <t>[0.9999999999999999, 0.13873538797276458, 0.09920622432724742, 0.12147024246831857, 0.11295001088678797, 0.08716327397186827, 0.14599729213422366, 0.27901481669049316, 0.15142389088013924, 0.09535111702911025, 0.10261873701708465, 0.1350414882277754, 0.09901973859258201, 0.17656250613997523, 0.23355557062680699, 0.15741675552387369, 0.09611710745967478, 0.1363931311771679, 0.10504215196688861, 0.11751102604288975]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.14076098385164804, 0.10299558811373223, 0.12411735346320647, 0.11549494245531228, 0.08954633752648712, 0.14580940205569717, 0.2762374586620903, 0.1501245493639528, 0.09487644839189921, 0.10145257250386426, 0.13416056039030638, 0.09915876145921537, 0.17473710792816705, 0.23107156258968406, 0.15577909063882972, 0.09508799457092529, 0.13560128597906634, 0.10414329770282374, 0.11609371422041224]</t>
+    <t>[0.9999999999999999, 0.13709626958881654, 0.09852774696455051, 0.12077979088152384, 0.11197821213454445, 0.08571557963541013, 0.14484799419627994, 0.2767299703450072, 0.14947789319624571, 0.09428296612797353, 0.10085455680757549, 0.1336410391810216, 0.09786712179432702, 0.17426700797333508, 0.2309945237130506, 0.15592642232838105, 0.09502595679078261, 0.13540526232731154, 0.10372135633142959, 0.11632968909516422]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-3.561601507882178</v>
+        <v>-5.252456272671355</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0393302453698143</v>
+        <v>52.44294387880445</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>896467.2427131189</v>
+        <v>896032.5591691051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-28.46716274331469</v>
+        <v>-15.61537303798918</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.04219520434267009</v>
+        <v>50.03537635728656</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1416030.891304129</v>
+        <v>1416272.580005531</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>38.19857787828995</v>
+        <v>34.1944611234107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0829075914580136</v>
+        <v>-21.14354273390921</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>431512.5795807452</v>
+        <v>431941.0529670275</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1592586768590456, 0.12111228976181755, 0.1426583236196811, 0.13500598947222628, 0.10967820855115931, 0.16577845798295474, 0.2964124780199115, 0.16999423398686994, 0.11805548404528905, 0.1247281095870983, 0.1564320320489262, 0.1217731682543413, 0.19767607857006003, 0.2507130858783167, 0.17740805005389226, 0.12012334046820418, 0.15790833323490278, 0.12621187049968427, 0.13988173366389584]</t>
+    <t>[1.0, 0.16567847909221484, 0.1281243159000581, 0.14938375448098118, 0.14185896035401052, 0.11676657279734318, 0.16910623000292685, 0.2991519261102621, 0.17334870233848512, 0.12153998399684587, 0.12808171312419367, 0.16003076500856628, 0.12551361900991267, 0.2006996338757427, 0.2538695051065751, 0.180809279457473, 0.12390492236174899, 0.16127477530651582, 0.13027199286800537, 0.1432814466719841]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1582736184776469, 0.12077024283686236, 0.14222444813574955, 0.13444917766842512, 0.10882322532814509, 0.16511738788605154, 0.2951443917793328, 0.16890251271794654, 0.11737994292960621, 0.12363305384043871, 0.15549663805866817, 0.12106185424131267, 0.19632210640100617, 0.24924370600064194, 0.17650214242942802, 0.11948753890053318, 0.15726451166539046, 0.12535332934537644, 0.13917304121124233]</t>
+    <t>[1.0, 0.16274706957587315, 0.12622235400711498, 0.14670709094378107, 0.13924730503912697, 0.113786036845273, 0.16671364028750796, 0.29511476800432596, 0.1701464032170918, 0.11901367183959839, 0.12513737684978443, 0.15705002772575022, 0.1232365854725888, 0.19743090271976882, 0.24964186387266674, 0.17710888463840793, 0.12078280634898264, 0.15848743469033447, 0.12693291277772342, 0.14017452334956537]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-5.676076316836556</v>
+        <v>-4.539101350276637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>38.73391696770494</v>
+        <v>0.03349084872856418</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>735459.7946303393</v>
+        <v>735690.0479906698</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-12.23776759858192</v>
+        <v>-22.09673263352916</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>37.33589825367726</v>
+        <v>0.04069433339166005</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1168017.107296011</v>
+        <v>1167782.585152757</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>20.00695374501069</v>
+        <v>23.16739802285751</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-9.234655535732513</v>
+        <v>-0.06042499595970936</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>346007.9129881668</v>
+        <v>345794.175302273</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16567847909221484, 0.1281243159000581, 0.14938375448098118, 0.14185896035401052, 0.11676657279734318, 0.16910623000292685, 0.2991519261102621, 0.17334870233848512, 0.12153998399684587, 0.12808171312419367, 0.16003076500856628, 0.12551361900991267, 0.2006996338757427, 0.2538695051065751, 0.180809279457473, 0.12390492236174899, 0.16127477530651582, 0.13027199286800537, 0.1432814466719841]</t>
+    <t>[1.0, 0.16567847909221478, 0.1281243159000581, 0.14938375448098112, 0.1418589603540105, 0.11676657279734323, 0.16910623000292674, 0.2991519261102621, 0.17334870233848493, 0.12153998399684583, 0.12808171312419375, 0.16003076500856625, 0.12551361900991267, 0.20069963387574247, 0.2538695051065749, 0.1808092794574729, 0.12390492236174896, 0.16127477530651585, 0.13027199286800545, 0.14328144667198414]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.16274706957587315, 0.12622235400711498, 0.14670709094378107, 0.13924730503912697, 0.113786036845273, 0.16671364028750796, 0.29511476800432596, 0.1701464032170918, 0.11901367183959839, 0.12513737684978443, 0.15705002772575022, 0.1232365854725888, 0.19743090271976882, 0.24964186387266674, 0.17710888463840793, 0.12078280634898264, 0.15848743469033447, 0.12693291277772342, 0.14017452334956537]</t>
+    <t>[1.0, 0.16274706957587312, 0.12622235400711493, 0.14670709094378107, 0.13924730503912708, 0.11378603684527301, 0.16671364028750796, 0.29511476800432573, 0.1701464032170919, 0.11901367183959838, 0.12513737684978443, 0.15705002772575033, 0.12323658547258876, 0.19743090271976885, 0.2496418638726667, 0.17710888463840788, 0.12078280634898271, 0.15848743469033447, 0.1269329127777235, 0.1401745233495653]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-4.539101350276637</v>
+        <v>-4.539101350276627</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03349084872856418</v>
+        <v>0.03349084872856421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9008498583569405</v>
+        <v>0.473919523099851</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.04069433339166005</v>
+        <v>0.04069433339166009</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>23.16739802285751</v>
+        <v>23.16739802285753</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.06042499595970936</v>
+        <v>-0.06042499595970922</v>
       </c>
     </row>
     <row r="9" spans="1:2">
